--- a/1_SEPTEMBER_ATTENDANCE_SUBMITTED_DPG_OPERATION_RESEARCH.xlsx
+++ b/1_SEPTEMBER_ATTENDANCE_SUBMITTED_DPG_OPERATION_RESEARCH.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FAHIM BHUTTO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F6BBD5-4992-4EB3-AEBD-DC5470D79FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="August" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">August!$A$1:$J$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">August!$A$1:$J$25</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Balochistan University of Engineering &amp; Technology, Khuzdar</t>
   </si>
@@ -117,16 +118,53 @@
   <si>
     <t>2 (Double 
 Class)</t>
+  </si>
+  <si>
+    <t>9 (Double 
+Class)</t>
+  </si>
+  <si>
+    <t>22ME-MECH02</t>
+  </si>
+  <si>
+    <t>Aqib Raza</t>
+  </si>
+  <si>
+    <t>22ME-MECH06</t>
+  </si>
+  <si>
+    <t>Hafiz Abdul Moeed</t>
+  </si>
+  <si>
+    <t>21ME-MECH12</t>
+  </si>
+  <si>
+    <t>Muhammad Arif</t>
+  </si>
+  <si>
+    <t>20ME-MECH11</t>
+  </si>
+  <si>
+    <t>Imran Khan</t>
+  </si>
+  <si>
+    <t>1 (Not Registered)</t>
+  </si>
+  <si>
+    <t>3 (Not Registered)</t>
+  </si>
+  <si>
+    <t>5 (Not Registered)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -185,13 +223,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
@@ -204,6 +235,47 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -221,7 +293,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -266,15 +338,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -397,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -417,57 +480,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -482,24 +525,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -514,6 +557,49 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,7 +638,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -852,138 +938,138 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.69921875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.296875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.296875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.09765625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.8984375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.69921875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.3984375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="8.09765625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.296875" style="4" customWidth="1"/>
-    <col min="10" max="11" width="9.09765625" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9.09765625" style="4"/>
+    <col min="1" max="1" width="4.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="4" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-    </row>
-    <row r="2" spans="1:10" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:10" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-    </row>
-    <row r="3" spans="1:10" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+    </row>
+    <row r="3" spans="1:10" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-    </row>
-    <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+    </row>
+    <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-    </row>
-    <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+    </row>
+    <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-    </row>
-    <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+    </row>
+    <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-    </row>
-    <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-    </row>
-    <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-    </row>
-    <row r="9" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+    </row>
+    <row r="9" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="7"/>
@@ -993,302 +1079,345 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="30" t="s">
+    <row r="10" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="41" t="s">
+      <c r="E10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="36.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="31"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="18" t="s">
+    <row r="11" spans="1:10" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="23"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="37"/>
-    </row>
-    <row r="12" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="31"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="21" t="s">
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="29"/>
+    </row>
+    <row r="12" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="16">
-        <v>6</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17">
+      <c r="D12" s="10">
+        <v>6</v>
+      </c>
+      <c r="E12" s="10">
+        <v>6</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="11">
         <f>SUM(D12:H12)</f>
-        <v>6</v>
-      </c>
-      <c r="J12" s="23">
+        <v>12</v>
+      </c>
+      <c r="J12" s="15">
         <f>(I12/$I$12)*100</f>
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="31"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="25" t="s">
+    <row r="13" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="35"/>
-    </row>
-    <row r="14" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="9">
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="27"/>
+    </row>
+    <row r="14" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="48">
         <v>1</v>
       </c>
-      <c r="B14" s="12">
-        <v>1</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="15">
-        <v>6</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="8">
-        <f t="shared" ref="I14:I23" si="0">SUM(D14:H14)</f>
-        <v>6</v>
-      </c>
-      <c r="J14" s="19">
-        <f t="shared" ref="J14:J23" si="1">(I14/$I$12)*100</f>
+      <c r="B14" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="49"/>
+      <c r="D14" s="50">
+        <v>6</v>
+      </c>
+      <c r="E14" s="50">
+        <v>6</v>
+      </c>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="39">
+        <f t="shared" ref="I14:I20" si="0">SUM(D14:H14)</f>
+        <v>12</v>
+      </c>
+      <c r="J14" s="40">
+        <f t="shared" ref="J14:J20" si="1">(I14/$I$12)*100</f>
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="9">
+    <row r="15" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="48">
         <v>2</v>
       </c>
-      <c r="B15" s="12">
-        <v>2</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15">
-        <v>6</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="8">
+      <c r="B15" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="51"/>
+      <c r="D15" s="50">
+        <v>6</v>
+      </c>
+      <c r="E15" s="50">
+        <v>6</v>
+      </c>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="39">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="J15" s="19">
+        <v>12</v>
+      </c>
+      <c r="J15" s="40">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="9">
+    <row r="16" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="48">
         <v>3</v>
       </c>
-      <c r="B16" s="12">
-        <v>3</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15">
-        <v>6</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="8">
+      <c r="B16" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="51"/>
+      <c r="D16" s="50">
+        <v>6</v>
+      </c>
+      <c r="E16" s="50">
+        <v>6</v>
+      </c>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="39">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="J16" s="19">
+        <v>12</v>
+      </c>
+      <c r="J16" s="40">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="9">
+    <row r="17" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="43">
         <v>4</v>
       </c>
-      <c r="B17" s="12">
-        <v>6</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15">
-        <v>6</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="8">
+      <c r="B17" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="45">
+        <v>6</v>
+      </c>
+      <c r="E17" s="45">
+        <v>6</v>
+      </c>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="46">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="J17" s="19">
+        <v>12</v>
+      </c>
+      <c r="J17" s="47">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="9">
+    <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="43">
         <v>5</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="19"/>
-    </row>
-    <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="9">
-        <v>6</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="19"/>
-    </row>
-    <row r="20" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="9">
+      <c r="B18" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="45">
+        <v>6</v>
+      </c>
+      <c r="E18" s="45">
+        <v>6</v>
+      </c>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="46">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J18" s="47">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="43">
+        <v>6</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="45">
+        <v>6</v>
+      </c>
+      <c r="E19" s="45">
+        <v>6</v>
+      </c>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="46">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J19" s="47">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="43">
         <v>7</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="19"/>
-    </row>
-    <row r="21" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="9">
-        <v>8</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="19"/>
-    </row>
-    <row r="22" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="9">
-        <v>9</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="19"/>
-    </row>
-    <row r="23" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="9">
-        <v>10</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="19"/>
-    </row>
-    <row r="24" spans="1:10" ht="46.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C24" s="10"/>
+      <c r="B20" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="45">
+        <v>6</v>
+      </c>
+      <c r="E20" s="45">
+        <v>6</v>
+      </c>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="46">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J20" s="47">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="35"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
+    </row>
+    <row r="22" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="35"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
+    </row>
+    <row r="23" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="35"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="38"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C24" s="18" t="s">
+        <v>14</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C25" s="26" t="s">
-        <v>14</v>
-      </c>
+      <c r="G24" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="19"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="27"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E27" s="3"/>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G24:H24"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="A10:A13"/>
@@ -1303,7 +1432,7 @@
     <mergeCell ref="D8:H8"/>
     <mergeCell ref="I10:I11"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
   <headerFooter>

--- a/1_SEPTEMBER_ATTENDANCE_SUBMITTED_DPG_OPERATION_RESEARCH.xlsx
+++ b/1_SEPTEMBER_ATTENDANCE_SUBMITTED_DPG_OPERATION_RESEARCH.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FAHIM BHUTTO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niaz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F6BBD5-4992-4EB3-AEBD-DC5470D79FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="August" sheetId="6" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">August!$A$1:$J$25</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Balochistan University of Engineering &amp; Technology, Khuzdar</t>
   </si>
@@ -155,12 +154,20 @@
   </si>
   <si>
     <t>5 (Not Registered)</t>
+  </si>
+  <si>
+    <t>30 
+ (Single 
+Class)</t>
+  </si>
+  <si>
+    <t>22ME-MECH05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -510,54 +517,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -600,6 +559,54 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -938,12 +945,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -964,26 +971,26 @@
     <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:10" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:10" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
@@ -991,13 +998,13 @@
       <c r="C3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
     </row>
     <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -1005,13 +1012,13 @@
       <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -1019,13 +1026,13 @@
       <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -1033,13 +1040,13 @@
       <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -1047,13 +1054,13 @@
       <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -1061,13 +1068,13 @@
       <c r="C8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
     </row>
     <row r="9" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -1080,10 +1087,10 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="41" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -1095,19 +1102,21 @@
       <c r="E10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="12"/>
+      <c r="F10" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="28" t="s">
+      <c r="J10" s="45" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
-      <c r="B11" s="25"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="12" t="s">
         <v>13</v>
       </c>
@@ -1122,12 +1131,12 @@
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="29"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="46"/>
     </row>
     <row r="12" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="25"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="13" t="s">
         <v>10</v>
       </c>
@@ -1137,12 +1146,14 @@
       <c r="E12" s="10">
         <v>6</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="F12" s="10">
+        <v>3</v>
+      </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="11">
         <f>SUM(D12:H12)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J12" s="15">
         <f>(I12/$I$12)*100</f>
@@ -1150,244 +1161,274 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="25"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="27"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="44"/>
     </row>
     <row r="14" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="48">
+      <c r="A14" s="32">
         <v>1</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="50">
-        <v>6</v>
-      </c>
-      <c r="E14" s="50">
-        <v>6</v>
-      </c>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="39">
+      <c r="C14" s="33"/>
+      <c r="D14" s="34">
+        <v>6</v>
+      </c>
+      <c r="E14" s="34">
+        <v>6</v>
+      </c>
+      <c r="F14" s="34">
+        <v>0</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="23">
         <f t="shared" ref="I14:I20" si="0">SUM(D14:H14)</f>
         <v>12</v>
       </c>
-      <c r="J14" s="40">
+      <c r="J14" s="24">
         <f t="shared" ref="J14:J20" si="1">(I14/$I$12)*100</f>
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="48">
+      <c r="A15" s="32">
         <v>2</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="50">
-        <v>6</v>
-      </c>
-      <c r="E15" s="50">
-        <v>6</v>
-      </c>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="39">
+      <c r="C15" s="35"/>
+      <c r="D15" s="34">
+        <v>6</v>
+      </c>
+      <c r="E15" s="34">
+        <v>6</v>
+      </c>
+      <c r="F15" s="34">
+        <v>0</v>
+      </c>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="23">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J15" s="40">
+      <c r="J15" s="24">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="32">
+        <v>3</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="35"/>
+      <c r="D16" s="34">
+        <v>6</v>
+      </c>
+      <c r="E16" s="34">
+        <v>6</v>
+      </c>
+      <c r="F16" s="34">
+        <v>0</v>
+      </c>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="23">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J16" s="24">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="27">
+        <v>4</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="29">
+        <v>6</v>
+      </c>
+      <c r="E17" s="29">
+        <v>6</v>
+      </c>
+      <c r="F17" s="29">
+        <v>0</v>
+      </c>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="30">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J17" s="31">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="27">
+        <v>5</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="29">
+        <v>6</v>
+      </c>
+      <c r="E18" s="29">
+        <v>6</v>
+      </c>
+      <c r="F18" s="29">
+        <v>0</v>
+      </c>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="30">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J18" s="31">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="27">
+        <v>6</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="29">
+        <v>6</v>
+      </c>
+      <c r="E19" s="29">
+        <v>6</v>
+      </c>
+      <c r="F19" s="29">
+        <v>0</v>
+      </c>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="30">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J19" s="31">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="27">
+        <v>7</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="29">
+        <v>6</v>
+      </c>
+      <c r="E20" s="29">
+        <v>6</v>
+      </c>
+      <c r="F20" s="29">
+        <v>3</v>
+      </c>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="30">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="J20" s="31">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="48">
+    <row r="21" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="19">
+        <v>8</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29">
+        <v>0</v>
+      </c>
+      <c r="E21" s="29">
+        <v>0</v>
+      </c>
+      <c r="F21" s="29">
         <v>3</v>
       </c>
-      <c r="B16" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="50">
-        <v>6</v>
-      </c>
-      <c r="E16" s="50">
-        <v>6</v>
-      </c>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="39">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="J16" s="40">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43">
-        <v>4</v>
-      </c>
-      <c r="B17" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="45">
-        <v>6</v>
-      </c>
-      <c r="E17" s="45">
-        <v>6</v>
-      </c>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="46">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="J17" s="47">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="43">
-        <v>5</v>
-      </c>
-      <c r="B18" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="45">
-        <v>6</v>
-      </c>
-      <c r="E18" s="45">
-        <v>6</v>
-      </c>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="46">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="J18" s="47">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="43">
-        <v>6</v>
-      </c>
-      <c r="B19" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="45">
-        <v>6</v>
-      </c>
-      <c r="E19" s="45">
-        <v>6</v>
-      </c>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="46">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="J19" s="47">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="43">
-        <v>7</v>
-      </c>
-      <c r="B20" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="45">
-        <v>6</v>
-      </c>
-      <c r="E20" s="45">
-        <v>6</v>
-      </c>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="46">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="J20" s="47">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="30">
+        <f t="shared" ref="I21" si="2">SUM(D21:H21)</f>
+        <v>3</v>
+      </c>
+      <c r="J21" s="31">
+        <f t="shared" ref="J21" si="3">(I21/$I$12)*100</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="22" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="35"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="38"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="22"/>
     </row>
     <row r="23" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="35"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="38"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="22"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C24" s="18" t="s">
@@ -1395,10 +1436,10 @@
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="19"/>
+      <c r="H24" s="36"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E25" s="3"/>

--- a/1_SEPTEMBER_ATTENDANCE_SUBMITTED_DPG_OPERATION_RESEARCH.xlsx
+++ b/1_SEPTEMBER_ATTENDANCE_SUBMITTED_DPG_OPERATION_RESEARCH.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niaz\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niazl\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -171,7 +171,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -259,14 +259,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -286,18 +278,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="14">
@@ -467,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -527,39 +513,23 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -950,7 +920,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:H8"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -971,26 +941,26 @@
     <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:10" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:10" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
@@ -998,13 +968,13 @@
       <c r="C3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
     </row>
     <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -1012,13 +982,13 @@
       <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -1026,13 +996,13 @@
       <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -1040,13 +1010,13 @@
       <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -1054,13 +1024,13 @@
       <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -1068,13 +1038,13 @@
       <c r="C8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
     </row>
     <row r="9" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -1087,10 +1057,10 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -1107,16 +1077,16 @@
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="50" t="s">
+      <c r="I10" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="45" t="s">
+      <c r="J10" s="39" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
-      <c r="B11" s="42"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="12" t="s">
         <v>13</v>
       </c>
@@ -1131,12 +1101,12 @@
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="46"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="40"/>
     </row>
     <row r="12" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="42"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="13" t="s">
         <v>10</v>
       </c>
@@ -1161,219 +1131,219 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="42"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="44"/>
-    </row>
-    <row r="14" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32">
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="38"/>
+    </row>
+    <row r="14" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="26">
         <v>1</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34">
-        <v>6</v>
-      </c>
-      <c r="E14" s="34">
-        <v>6</v>
-      </c>
-      <c r="F14" s="34">
+      <c r="C14" s="26"/>
+      <c r="D14" s="26">
+        <v>6</v>
+      </c>
+      <c r="E14" s="26">
+        <v>6</v>
+      </c>
+      <c r="F14" s="26">
         <v>0</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="23">
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26">
         <f t="shared" ref="I14:I20" si="0">SUM(D14:H14)</f>
         <v>12</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="26">
         <f t="shared" ref="J14:J20" si="1">(I14/$I$12)*100</f>
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32">
+    <row r="15" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="26">
         <v>2</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="34">
-        <v>6</v>
-      </c>
-      <c r="E15" s="34">
-        <v>6</v>
-      </c>
-      <c r="F15" s="34">
+      <c r="C15" s="26"/>
+      <c r="D15" s="26">
+        <v>6</v>
+      </c>
+      <c r="E15" s="26">
+        <v>6</v>
+      </c>
+      <c r="F15" s="26">
         <v>0</v>
       </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="23">
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J15" s="24">
+      <c r="J15" s="26">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32">
+    <row r="16" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="26">
         <v>3</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="34">
-        <v>6</v>
-      </c>
-      <c r="E16" s="34">
-        <v>6</v>
-      </c>
-      <c r="F16" s="34">
+      <c r="C16" s="26"/>
+      <c r="D16" s="26">
+        <v>6</v>
+      </c>
+      <c r="E16" s="26">
+        <v>6</v>
+      </c>
+      <c r="F16" s="26">
         <v>0</v>
       </c>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="23">
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="26">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27">
+      <c r="A17" s="25">
         <v>4</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="29">
-        <v>6</v>
-      </c>
-      <c r="E17" s="29">
-        <v>6</v>
-      </c>
-      <c r="F17" s="29">
+      <c r="D17" s="27">
+        <v>6</v>
+      </c>
+      <c r="E17" s="27">
+        <v>6</v>
+      </c>
+      <c r="F17" s="27">
         <v>0</v>
       </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="30">
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="28">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J17" s="31">
+      <c r="J17" s="29">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27">
+      <c r="A18" s="25">
         <v>5</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="29">
-        <v>6</v>
-      </c>
-      <c r="E18" s="29">
-        <v>6</v>
-      </c>
-      <c r="F18" s="29">
+      <c r="D18" s="27">
+        <v>6</v>
+      </c>
+      <c r="E18" s="27">
+        <v>6</v>
+      </c>
+      <c r="F18" s="27">
         <v>0</v>
       </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="30">
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="28">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J18" s="31">
+      <c r="J18" s="29">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27">
-        <v>6</v>
-      </c>
-      <c r="B19" s="28" t="s">
+      <c r="A19" s="25">
+        <v>6</v>
+      </c>
+      <c r="B19" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="29">
-        <v>6</v>
-      </c>
-      <c r="E19" s="29">
-        <v>6</v>
-      </c>
-      <c r="F19" s="29">
+      <c r="D19" s="27">
+        <v>6</v>
+      </c>
+      <c r="E19" s="27">
+        <v>6</v>
+      </c>
+      <c r="F19" s="27">
         <v>0</v>
       </c>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="30">
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="28">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J19" s="31">
+      <c r="J19" s="29">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27">
+      <c r="A20" s="25">
         <v>7</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="29">
-        <v>6</v>
-      </c>
-      <c r="E20" s="29">
-        <v>6</v>
-      </c>
-      <c r="F20" s="29">
+      <c r="D20" s="27">
+        <v>6</v>
+      </c>
+      <c r="E20" s="27">
+        <v>6</v>
+      </c>
+      <c r="F20" s="27">
         <v>3</v>
       </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="30">
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="28">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="J20" s="31">
+      <c r="J20" s="29">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -1382,36 +1352,36 @@
       <c r="A21" s="19">
         <v>8</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29">
+      <c r="C21" s="26"/>
+      <c r="D21" s="27">
         <v>0</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="27">
         <v>0</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="27">
         <v>3</v>
       </c>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="30">
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="28">
         <f t="shared" ref="I21" si="2">SUM(D21:H21)</f>
         <v>3</v>
       </c>
-      <c r="J21" s="31">
+      <c r="J21" s="29">
         <f t="shared" ref="J21" si="3">(I21/$I$12)*100</f>
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
@@ -1420,10 +1390,10 @@
     </row>
     <row r="23" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="19"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
@@ -1436,10 +1406,10 @@
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="36" t="s">
+      <c r="G24" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="36"/>
+      <c r="H24" s="30"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E25" s="3"/>

--- a/1_SEPTEMBER_ATTENDANCE_SUBMITTED_DPG_OPERATION_RESEARCH.xlsx
+++ b/1_SEPTEMBER_ATTENDANCE_SUBMITTED_DPG_OPERATION_RESEARCH.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niazl\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190"/>
   </bookViews>
   <sheets>
     <sheet name="August" sheetId="6" r:id="rId1"/>
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -453,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -517,19 +517,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -578,6 +565,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,7 +610,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -917,136 +912,136 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" style="4" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="4.69921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.09765625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.8984375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.69921875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.3984375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="8.09765625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.296875" style="4" customWidth="1"/>
+    <col min="10" max="11" width="9.09765625" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9.09765625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-    </row>
-    <row r="2" spans="1:10" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-    </row>
-    <row r="3" spans="1:10" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+    </row>
+    <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-    </row>
-    <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+    </row>
+    <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-    </row>
-    <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-    </row>
-    <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+    </row>
+    <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-    </row>
-    <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+    </row>
+    <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-    </row>
-    <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-    </row>
-    <row r="9" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+    </row>
+    <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="7"/>
@@ -1056,11 +1051,11 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+    <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="30" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -1077,16 +1072,16 @@
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="44" t="s">
+      <c r="I10" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="39" t="s">
+      <c r="J10" s="34" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
-      <c r="B11" s="36"/>
+    <row r="11" spans="1:11" ht="36.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="29"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="12" t="s">
         <v>13</v>
       </c>
@@ -1101,12 +1096,12 @@
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="40"/>
-    </row>
-    <row r="12" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="36"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="35"/>
+    </row>
+    <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="29"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="13" t="s">
         <v>10</v>
       </c>
@@ -1130,253 +1125,261 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="36"/>
+    <row r="13" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="29"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="38"/>
-    </row>
-    <row r="14" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26">
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="33"/>
+    </row>
+    <row r="14" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="41">
         <v>1</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26">
-        <v>6</v>
-      </c>
-      <c r="E14" s="26">
-        <v>6</v>
-      </c>
-      <c r="F14" s="26">
+      <c r="C14" s="41"/>
+      <c r="D14" s="41">
+        <v>6</v>
+      </c>
+      <c r="E14" s="41">
+        <v>6</v>
+      </c>
+      <c r="F14" s="41">
         <v>0</v>
       </c>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26">
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41">
         <f t="shared" ref="I14:I20" si="0">SUM(D14:H14)</f>
         <v>12</v>
       </c>
-      <c r="J14" s="26">
+      <c r="J14" s="41">
         <f t="shared" ref="J14:J20" si="1">(I14/$I$12)*100</f>
         <v>80</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26">
+      <c r="K14" s="42"/>
+    </row>
+    <row r="15" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="41">
         <v>2</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26">
-        <v>6</v>
-      </c>
-      <c r="E15" s="26">
-        <v>6</v>
-      </c>
-      <c r="F15" s="26">
+      <c r="C15" s="41"/>
+      <c r="D15" s="41">
+        <v>6</v>
+      </c>
+      <c r="E15" s="41">
+        <v>6</v>
+      </c>
+      <c r="F15" s="41">
         <v>0</v>
       </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26">
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J15" s="26">
+      <c r="J15" s="41">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26">
+      <c r="K15" s="42"/>
+    </row>
+    <row r="16" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="41">
         <v>3</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26">
-        <v>6</v>
-      </c>
-      <c r="E16" s="26">
-        <v>6</v>
-      </c>
-      <c r="F16" s="26">
+      <c r="C16" s="41"/>
+      <c r="D16" s="41">
+        <v>6</v>
+      </c>
+      <c r="E16" s="41">
+        <v>6</v>
+      </c>
+      <c r="F16" s="41">
         <v>0</v>
       </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26">
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J16" s="41">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25">
+      <c r="K16" s="42"/>
+    </row>
+    <row r="17" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="43">
         <v>4</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="27">
-        <v>6</v>
-      </c>
-      <c r="E17" s="27">
-        <v>6</v>
-      </c>
-      <c r="F17" s="27">
+      <c r="D17" s="43">
+        <v>6</v>
+      </c>
+      <c r="E17" s="43">
+        <v>6</v>
+      </c>
+      <c r="F17" s="43">
         <v>0</v>
       </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="28">
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="44">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J17" s="29">
+      <c r="J17" s="45">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25">
+      <c r="K17" s="42"/>
+    </row>
+    <row r="18" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="43">
         <v>5</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="27">
-        <v>6</v>
-      </c>
-      <c r="E18" s="27">
-        <v>6</v>
-      </c>
-      <c r="F18" s="27">
+      <c r="D18" s="43">
+        <v>6</v>
+      </c>
+      <c r="E18" s="43">
+        <v>6</v>
+      </c>
+      <c r="F18" s="43">
         <v>0</v>
       </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="28">
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="44">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J18" s="29">
+      <c r="J18" s="45">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="25">
-        <v>6</v>
-      </c>
-      <c r="B19" s="26" t="s">
+      <c r="K18" s="42"/>
+    </row>
+    <row r="19" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="43">
+        <v>6</v>
+      </c>
+      <c r="B19" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="27">
-        <v>6</v>
-      </c>
-      <c r="E19" s="27">
-        <v>6</v>
-      </c>
-      <c r="F19" s="27">
+      <c r="D19" s="43">
+        <v>6</v>
+      </c>
+      <c r="E19" s="43">
+        <v>6</v>
+      </c>
+      <c r="F19" s="43">
         <v>0</v>
       </c>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="28">
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="44">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J19" s="29">
+      <c r="J19" s="45">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25">
+      <c r="K19" s="42"/>
+    </row>
+    <row r="20" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="43">
         <v>7</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="27">
-        <v>6</v>
-      </c>
-      <c r="E20" s="27">
-        <v>6</v>
-      </c>
-      <c r="F20" s="27">
+      <c r="D20" s="43">
+        <v>6</v>
+      </c>
+      <c r="E20" s="43">
+        <v>6</v>
+      </c>
+      <c r="F20" s="43">
         <v>3</v>
       </c>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="28">
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="44">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="J20" s="29">
+      <c r="J20" s="45">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19">
+      <c r="K20" s="42"/>
+    </row>
+    <row r="21" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="46">
         <v>8</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="27">
+      <c r="C21" s="41"/>
+      <c r="D21" s="43">
         <v>0</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="43">
         <v>0</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="43">
         <v>3</v>
       </c>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="28">
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="44">
         <f t="shared" ref="I21" si="2">SUM(D21:H21)</f>
         <v>3</v>
       </c>
-      <c r="J21" s="29">
+      <c r="J21" s="45">
         <f t="shared" ref="J21" si="3">(I21/$I$12)*100</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K21" s="42"/>
+    </row>
+    <row r="22" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="19"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -1388,7 +1391,7 @@
       <c r="I22" s="21"/>
       <c r="J22" s="22"/>
     </row>
-    <row r="23" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="19"/>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
@@ -1400,26 +1403,26 @@
       <c r="I23" s="21"/>
       <c r="J23" s="22"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C24" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="30" t="s">
+      <c r="G24" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="30"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H24" s="25"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E26" s="3"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
